--- a/biology/Biologie cellulaire et moléculaire/Hybridation_génomique_comparative/Hybridation_génomique_comparative.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hybridation_génomique_comparative/Hybridation_génomique_comparative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hybridation_g%C3%A9nomique_comparative</t>
+          <t>Hybridation_génomique_comparative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hybridation génomique comparative (en anglais, Comparative Genomic Hybridization ou CGH) est une technique de cytogénétique moléculaire permettant d'analyser les variations du nombre de copies dans l'ADN.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hybridation_g%C3%A9nomique_comparative</t>
+          <t>Hybridation_génomique_comparative</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un organisme diploïde tel que l'humain, chaque segment d'ADN peut être trouvé en duplicat : une copie est présente sur chacun des deux chromosomes d'une paire. Dans certaines pathologies, le nombre de copies peut varier : il peut augmenter par exemple en cas de duplication et diminuer dans le cas de délétion. L'hybridation génomique comparative permet de diagnostiquer ces pathologies et d'identifier les régions chromosomiques impliquées.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hybridation_g%C3%A9nomique_comparative</t>
+          <t>Hybridation_génomique_comparative</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Marquage des sondes
 L'ADN d'un patient est extrait de tissu normal (souvent des lymphocytes) et de tissu potentiellement tumoral puis marqué par des fluorochromes. En général, l'ADN tumoral est marqué en vert par la fluorescéine (sous forme de dUTP-FITC) et l'ADN de tissu sain en rouge par la rhodamine (sous forme de dUTP-TR).
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hybridation_g%C3%A9nomique_comparative</t>
+          <t>Hybridation_génomique_comparative</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Considérations techniques et limitations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette technique détecte seulement les modifications chromosomiques non équilibrées. Des aberrations chromosomiques structurales telle que les translocations réciproques ou les inversions ne seront pas détectées.
 Lors de l'analyse quantitative, le ratio de fluorescence (sain / tumoral) le plus fréquent est utilisé comme référence. De ce fait, cette technique ne donne pas d'informations concernant la ploïdie : des tétraploïdes ne présentant pas de réarrangements déséquilibrés apparaitront normaux.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hybridation_g%C3%A9nomique_comparative</t>
+          <t>Hybridation_génomique_comparative</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En recherche et en clinique, pour l'étude et le diagnostic des cancers, de malformations congénitales, des retards mentaux, etc. Voir en particulier les articles sur les modifications chromosomiques pour des exemples de pathologies présentant des modifications dans la structure des chromosomes : Duplication (génétique), Cassure chromosomique.</t>
         </is>
